--- a/natmiOut/OldD2/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Rspo3</t>
   </si>
   <si>
     <t>Lgr5</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.05633158589939</v>
+        <v>0.052433</v>
       </c>
       <c r="H2">
-        <v>2.05633158589939</v>
+        <v>0.104866</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02014015227998088</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01351751646668263</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.635824157613565</v>
+        <v>0.662039</v>
       </c>
       <c r="N2">
-        <v>0.635824157613565</v>
+        <v>1.324078</v>
       </c>
       <c r="O2">
-        <v>0.1812290909731205</v>
+        <v>0.1418397054364257</v>
       </c>
       <c r="P2">
-        <v>0.1812290909731205</v>
+        <v>0.124711715334964</v>
       </c>
       <c r="Q2">
-        <v>1.307465298378646</v>
+        <v>0.03471269088700001</v>
       </c>
       <c r="R2">
-        <v>1.307465298378646</v>
+        <v>0.138850763548</v>
       </c>
       <c r="S2">
-        <v>0.1812290909731205</v>
+        <v>0.002856673266837245</v>
       </c>
       <c r="T2">
-        <v>0.1812290909731205</v>
+        <v>0.001685792665628613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.05633158589939</v>
+        <v>0.052433</v>
       </c>
       <c r="H3">
-        <v>2.05633158589939</v>
+        <v>0.104866</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02014015227998088</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01351751646668263</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.762651077049165</v>
+        <v>0.9623393333333333</v>
       </c>
       <c r="N3">
-        <v>0.762651077049165</v>
+        <v>2.887018</v>
       </c>
       <c r="O3">
-        <v>0.2173785940157596</v>
+        <v>0.2061780764726643</v>
       </c>
       <c r="P3">
-        <v>0.2173785940157596</v>
+        <v>0.2719212667100557</v>
       </c>
       <c r="Q3">
-        <v>1.568263498756387</v>
+        <v>0.05045833826466667</v>
       </c>
       <c r="R3">
-        <v>1.568263498756387</v>
+        <v>0.302750029588</v>
       </c>
       <c r="S3">
-        <v>0.2173785940157596</v>
+        <v>0.004152457856953003</v>
       </c>
       <c r="T3">
-        <v>0.2173785940157596</v>
+        <v>0.003675700200394378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +652,991 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.052433</v>
+      </c>
+      <c r="H4">
+        <v>0.104866</v>
+      </c>
+      <c r="I4">
+        <v>0.02014015227998088</v>
+      </c>
+      <c r="J4">
+        <v>0.01351751646668263</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.064319</v>
+      </c>
+      <c r="N4">
+        <v>0.192957</v>
+      </c>
+      <c r="O4">
+        <v>0.0137801368408288</v>
+      </c>
+      <c r="P4">
+        <v>0.01817415473702354</v>
+      </c>
+      <c r="Q4">
+        <v>0.003372438127</v>
+      </c>
+      <c r="R4">
+        <v>0.020234628762</v>
+      </c>
+      <c r="S4">
+        <v>0.0002775340544132668</v>
+      </c>
+      <c r="T4">
+        <v>0.0002456694359257538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.052433</v>
+      </c>
+      <c r="H5">
+        <v>0.104866</v>
+      </c>
+      <c r="I5">
+        <v>0.02014015227998088</v>
+      </c>
+      <c r="J5">
+        <v>0.01351751646668263</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.04105066666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.123152</v>
+      </c>
+      <c r="O5">
+        <v>0.008794972000091984</v>
+      </c>
+      <c r="P5">
+        <v>0.0115993900411694</v>
+      </c>
+      <c r="Q5">
+        <v>0.002152409605333333</v>
+      </c>
+      <c r="R5">
+        <v>0.012914457632</v>
+      </c>
+      <c r="S5">
+        <v>0.0001771320753800206</v>
+      </c>
+      <c r="T5">
+        <v>0.0001567949458849818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.052433</v>
+      </c>
+      <c r="H6">
+        <v>0.104866</v>
+      </c>
+      <c r="I6">
+        <v>0.02014015227998088</v>
+      </c>
+      <c r="J6">
+        <v>0.01351751646668263</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.2143703333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.643111</v>
+      </c>
+      <c r="O6">
+        <v>0.04592814763829378</v>
+      </c>
+      <c r="P6">
+        <v>0.06057307497049574</v>
+      </c>
+      <c r="Q6">
+        <v>0.01124007968766667</v>
+      </c>
+      <c r="R6">
+        <v>0.067440478126</v>
+      </c>
+      <c r="S6">
+        <v>0.000924999887372681</v>
+      </c>
+      <c r="T6">
+        <v>0.0008187975383512777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.052433</v>
+      </c>
+      <c r="H7">
+        <v>0.104866</v>
+      </c>
+      <c r="I7">
+        <v>0.02014015227998088</v>
+      </c>
+      <c r="J7">
+        <v>0.01351751646668263</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.723397</v>
+      </c>
+      <c r="N7">
+        <v>5.446794</v>
+      </c>
+      <c r="O7">
+        <v>0.5834789616116954</v>
+      </c>
+      <c r="P7">
+        <v>0.5130203982062915</v>
+      </c>
+      <c r="Q7">
+        <v>0.142795874901</v>
+      </c>
+      <c r="R7">
+        <v>0.5711834996039999</v>
+      </c>
+      <c r="S7">
+        <v>0.01175135513902466</v>
+      </c>
+      <c r="T7">
+        <v>0.006934761680497626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.598354</v>
+      </c>
+      <c r="I8">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J8">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.662039</v>
+      </c>
+      <c r="N8">
+        <v>1.324078</v>
+      </c>
+      <c r="O8">
+        <v>0.1418397054364257</v>
+      </c>
+      <c r="P8">
+        <v>0.124711715334964</v>
+      </c>
+      <c r="Q8">
+        <v>1.676802227935333</v>
+      </c>
+      <c r="R8">
+        <v>10.060813367612</v>
+      </c>
+      <c r="S8">
+        <v>0.1379920707936214</v>
+      </c>
+      <c r="T8">
+        <v>0.1221487369028078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.598354</v>
+      </c>
+      <c r="I9">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J9">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9623393333333333</v>
+      </c>
+      <c r="N9">
+        <v>2.887018</v>
+      </c>
+      <c r="O9">
+        <v>0.2061780764726643</v>
+      </c>
+      <c r="P9">
+        <v>0.2719212667100557</v>
+      </c>
+      <c r="Q9">
+        <v>2.437398307596889</v>
+      </c>
+      <c r="R9">
+        <v>21.936584768372</v>
+      </c>
+      <c r="S9">
+        <v>0.200585157993441</v>
+      </c>
+      <c r="T9">
+        <v>0.2663329517714743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H10">
+        <v>7.598354</v>
+      </c>
+      <c r="I10">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J10">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.064319</v>
+      </c>
+      <c r="N10">
+        <v>0.192957</v>
+      </c>
+      <c r="O10">
+        <v>0.0137801368408288</v>
+      </c>
+      <c r="P10">
+        <v>0.01817415473702354</v>
+      </c>
+      <c r="Q10">
+        <v>0.1629061769753333</v>
+      </c>
+      <c r="R10">
+        <v>1.466155592778</v>
+      </c>
+      <c r="S10">
+        <v>0.01340632802806924</v>
+      </c>
+      <c r="T10">
+        <v>0.0178006536069288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H11">
+        <v>7.598354</v>
+      </c>
+      <c r="I11">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J11">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.04105066666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.123152</v>
+      </c>
+      <c r="O11">
+        <v>0.008794972000091984</v>
+      </c>
+      <c r="P11">
+        <v>0.0115993900411694</v>
+      </c>
+      <c r="Q11">
+        <v>0.1039724990897778</v>
+      </c>
+      <c r="R11">
+        <v>0.935752491808</v>
+      </c>
+      <c r="S11">
+        <v>0.008556393959860398</v>
+      </c>
+      <c r="T11">
+        <v>0.01136100837492548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.05633158589939</v>
-      </c>
-      <c r="H4">
-        <v>2.05633158589939</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.10992484724172</v>
-      </c>
-      <c r="N4">
-        <v>2.10992484724172</v>
-      </c>
-      <c r="O4">
-        <v>0.6013923150111199</v>
-      </c>
-      <c r="P4">
-        <v>0.6013923150111199</v>
-      </c>
-      <c r="Q4">
-        <v>4.338705107257094</v>
-      </c>
-      <c r="R4">
-        <v>4.338705107257094</v>
-      </c>
-      <c r="S4">
-        <v>0.6013923150111199</v>
-      </c>
-      <c r="T4">
-        <v>0.6013923150111199</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H12">
+        <v>7.598354</v>
+      </c>
+      <c r="I12">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J12">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2143703333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.643111</v>
+      </c>
+      <c r="O12">
+        <v>0.04592814763829378</v>
+      </c>
+      <c r="P12">
+        <v>0.06057307497049574</v>
+      </c>
+      <c r="Q12">
+        <v>0.5429538932548889</v>
+      </c>
+      <c r="R12">
+        <v>4.886585039294</v>
+      </c>
+      <c r="S12">
+        <v>0.04468227130635134</v>
+      </c>
+      <c r="T12">
+        <v>0.05932822412146534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H13">
+        <v>7.598354</v>
+      </c>
+      <c r="I13">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J13">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.723397</v>
+      </c>
+      <c r="N13">
+        <v>5.446794</v>
+      </c>
+      <c r="O13">
+        <v>0.5834789616116954</v>
+      </c>
+      <c r="P13">
+        <v>0.5130203982062915</v>
+      </c>
+      <c r="Q13">
+        <v>6.897778162846</v>
+      </c>
+      <c r="R13">
+        <v>41.386668977076</v>
+      </c>
+      <c r="S13">
+        <v>0.5676511378077967</v>
+      </c>
+      <c r="T13">
+        <v>0.5024772009426874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.054566</v>
+      </c>
+      <c r="I14">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J14">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.662039</v>
+      </c>
+      <c r="N14">
+        <v>1.324078</v>
+      </c>
+      <c r="O14">
+        <v>0.1418397054364257</v>
+      </c>
+      <c r="P14">
+        <v>0.124711715334964</v>
+      </c>
+      <c r="Q14">
+        <v>0.01204160669133334</v>
+      </c>
+      <c r="R14">
+        <v>0.07224964014800001</v>
+      </c>
+      <c r="S14">
+        <v>0.0009909613759670507</v>
+      </c>
+      <c r="T14">
+        <v>0.0008771857665276727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.054566</v>
+      </c>
+      <c r="I15">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J15">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9623393333333333</v>
+      </c>
+      <c r="N15">
+        <v>2.887018</v>
+      </c>
+      <c r="O15">
+        <v>0.2061780764726643</v>
+      </c>
+      <c r="P15">
+        <v>0.2719212667100557</v>
+      </c>
+      <c r="Q15">
+        <v>0.01750366935422222</v>
+      </c>
+      <c r="R15">
+        <v>0.157533024188</v>
+      </c>
+      <c r="S15">
+        <v>0.001440460622270311</v>
+      </c>
+      <c r="T15">
+        <v>0.001912614738187016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.054566</v>
+      </c>
+      <c r="I16">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J16">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.064319</v>
+      </c>
+      <c r="N16">
+        <v>0.192957</v>
+      </c>
+      <c r="O16">
+        <v>0.0137801368408288</v>
+      </c>
+      <c r="P16">
+        <v>0.01817415473702354</v>
+      </c>
+      <c r="Q16">
+        <v>0.001169876851333334</v>
+      </c>
+      <c r="R16">
+        <v>0.010528891662</v>
+      </c>
+      <c r="S16">
+        <v>9.627475834629791E-05</v>
+      </c>
+      <c r="T16">
+        <v>0.0001278316941689841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.054566</v>
+      </c>
+      <c r="I17">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J17">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04105066666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.123152</v>
+      </c>
+      <c r="O17">
+        <v>0.008794972000091984</v>
+      </c>
+      <c r="P17">
+        <v>0.0115993900411694</v>
+      </c>
+      <c r="Q17">
+        <v>0.0007466568924444446</v>
+      </c>
+      <c r="R17">
+        <v>0.006719912032</v>
+      </c>
+      <c r="S17">
+        <v>6.144596485156424E-05</v>
+      </c>
+      <c r="T17">
+        <v>8.158672035893349E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.054566</v>
+      </c>
+      <c r="I18">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J18">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2143703333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.643111</v>
+      </c>
+      <c r="O18">
+        <v>0.04592814763829378</v>
+      </c>
+      <c r="P18">
+        <v>0.06057307497049574</v>
+      </c>
+      <c r="Q18">
+        <v>0.003899110536222223</v>
+      </c>
+      <c r="R18">
+        <v>0.035091994826</v>
+      </c>
+      <c r="S18">
+        <v>0.0003208764445697539</v>
+      </c>
+      <c r="T18">
+        <v>0.0004260533106791126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.054566</v>
+      </c>
+      <c r="I19">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J19">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.723397</v>
+      </c>
+      <c r="N19">
+        <v>5.446794</v>
+      </c>
+      <c r="O19">
+        <v>0.5834789616116954</v>
+      </c>
+      <c r="P19">
+        <v>0.5130203982062915</v>
+      </c>
+      <c r="Q19">
+        <v>0.049534960234</v>
+      </c>
+      <c r="R19">
+        <v>0.297209761404</v>
+      </c>
+      <c r="S19">
+        <v>0.004076468664874029</v>
+      </c>
+      <c r="T19">
+        <v>0.003608435583106379</v>
       </c>
     </row>
   </sheetData>
